--- a/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
+++ b/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D215A-F356-41BF-8F48-83F522E9CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E6142-ED91-4E3C-9073-FBC3907B17CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -378,6 +378,13 @@
   <si>
     <t>申請日期</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmitKey= , AND CustId= , AND ApplyDate= </t>
+  </si>
+  <si>
+    <t>custRcSubEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -948,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1914,11 +1921,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2003,6 +2010,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
+++ b/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E6142-ED91-4E3C-9073-FBC3907B17CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3E107-124D-438A-AB08-BC7865908099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -378,13 +378,6 @@
   <si>
     <t>申請日期</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SubmitKey= , AND CustId= , AND ApplyDate= </t>
-  </si>
-  <si>
-    <t>custRcSubEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1921,11 +1914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2010,17 +2003,6 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
